--- a/Code/Results/Cases/Case_8_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050054767707004</v>
+        <v>1.038320377112221</v>
       </c>
       <c r="D2">
-        <v>1.061470100458033</v>
+        <v>1.051257982736561</v>
       </c>
       <c r="E2">
-        <v>1.05780079950798</v>
+        <v>1.048304048553993</v>
       </c>
       <c r="F2">
-        <v>1.065534150672389</v>
+        <v>1.05695069274091</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.073719741697039</v>
+        <v>1.066837810636197</v>
       </c>
       <c r="J2">
-        <v>1.070834893233516</v>
+        <v>1.059412370471787</v>
       </c>
       <c r="K2">
-        <v>1.072134673468245</v>
+        <v>1.062046577737489</v>
       </c>
       <c r="L2">
-        <v>1.06850959235977</v>
+        <v>1.059129078739833</v>
       </c>
       <c r="M2">
-        <v>1.076150187211987</v>
+        <v>1.067669784894574</v>
       </c>
       <c r="N2">
-        <v>1.072355601608386</v>
+        <v>1.042907825256613</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.068839618203312</v>
+        <v>1.062128170759164</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.062075167536784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.05495091632403</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02794676387337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054527724307925</v>
+        <v>1.04217679782339</v>
       </c>
       <c r="D3">
-        <v>1.064614330061177</v>
+        <v>1.053847047728936</v>
       </c>
       <c r="E3">
-        <v>1.061375334349104</v>
+        <v>1.051322226775997</v>
       </c>
       <c r="F3">
-        <v>1.068788781592338</v>
+        <v>1.059730493717482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.075273980964608</v>
+        <v>1.068010787271014</v>
       </c>
       <c r="J3">
-        <v>1.073634752562221</v>
+        <v>1.061580178664078</v>
       </c>
       <c r="K3">
-        <v>1.074482187364159</v>
+        <v>1.063834361237411</v>
       </c>
       <c r="L3">
-        <v>1.071278812968476</v>
+        <v>1.061337987919132</v>
       </c>
       <c r="M3">
-        <v>1.078611120487295</v>
+        <v>1.069652164205905</v>
       </c>
       <c r="N3">
-        <v>1.075159437058487</v>
+        <v>1.044123112821486</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.070787206724589</v>
+        <v>1.063697044209448</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.063732383009776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.056212102116804</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02836967111032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057367553677854</v>
+        <v>1.044629272610649</v>
       </c>
       <c r="D4">
-        <v>1.066614019577277</v>
+        <v>1.055497069115618</v>
       </c>
       <c r="E4">
-        <v>1.063649344488224</v>
+        <v>1.053246801779344</v>
       </c>
       <c r="F4">
-        <v>1.070860846757581</v>
+        <v>1.061504010016229</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.076251829493647</v>
+        <v>1.068748040408744</v>
       </c>
       <c r="J4">
-        <v>1.075409522168396</v>
+        <v>1.062956376255244</v>
       </c>
       <c r="K4">
-        <v>1.075969831855685</v>
+        <v>1.064968837600859</v>
       </c>
       <c r="L4">
-        <v>1.073035790728142</v>
+        <v>1.062742406327146</v>
       </c>
       <c r="M4">
-        <v>1.080173136716409</v>
+        <v>1.07091275428653</v>
       </c>
       <c r="N4">
-        <v>1.076936727041071</v>
+        <v>1.044894612698908</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.0720233876788</v>
+        <v>1.064694685304882</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.064785078463684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05701519235611</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.028635658296582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058555587750242</v>
+        <v>1.04565521363573</v>
       </c>
       <c r="D5">
-        <v>1.067453771508739</v>
+        <v>1.056190489331413</v>
       </c>
       <c r="E5">
-        <v>1.064603417015387</v>
+        <v>1.054054391385432</v>
       </c>
       <c r="F5">
-        <v>1.071730041033514</v>
+        <v>1.062248185950831</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.076660883521074</v>
+        <v>1.069056276411986</v>
       </c>
       <c r="J5">
-        <v>1.076153678930945</v>
+        <v>1.063533512696379</v>
       </c>
       <c r="K5">
-        <v>1.076595039988898</v>
+        <v>1.065446136724682</v>
       </c>
       <c r="L5">
-        <v>1.07377335253736</v>
+        <v>1.063332067294537</v>
       </c>
       <c r="M5">
-        <v>1.080828648996446</v>
+        <v>1.071441950207237</v>
       </c>
       <c r="N5">
-        <v>1.077681940591579</v>
+        <v>1.045218155577486</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.072542160082512</v>
+        <v>1.065113494821369</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.065234061128911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05736036125171</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028748433441575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058762590625469</v>
+        <v>1.045832849053095</v>
       </c>
       <c r="D6">
-        <v>1.067603039554241</v>
+        <v>1.05631345589455</v>
       </c>
       <c r="E6">
-        <v>1.064771760953593</v>
+        <v>1.054195834290442</v>
       </c>
       <c r="F6">
-        <v>1.0718827938873</v>
+        <v>1.062378232041021</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.076734645819142</v>
+        <v>1.069111883816559</v>
       </c>
       <c r="J6">
-        <v>1.076286208758478</v>
+        <v>1.063635878652694</v>
       </c>
       <c r="K6">
-        <v>1.076708243618706</v>
+        <v>1.065532783986927</v>
       </c>
       <c r="L6">
-        <v>1.073905309260429</v>
+        <v>1.063436900914673</v>
       </c>
       <c r="M6">
-        <v>1.080945498028622</v>
+        <v>1.071535885632934</v>
       </c>
       <c r="N6">
-        <v>1.077814658626669</v>
+        <v>1.04527554188733</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.072634634368972</v>
+        <v>1.065187835980008</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.065322557485188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.057431009560354</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.028770625498705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057405854219679</v>
+        <v>1.044691244778109</v>
       </c>
       <c r="D7">
-        <v>1.066648906621055</v>
+        <v>1.055550879202913</v>
       </c>
       <c r="E7">
-        <v>1.063685684380898</v>
+        <v>1.053306075746689</v>
       </c>
       <c r="F7">
-        <v>1.070892183573912</v>
+        <v>1.061553304452287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.076272089530015</v>
+        <v>1.068781653614566</v>
       </c>
       <c r="J7">
-        <v>1.075441383331031</v>
+        <v>1.063011240272117</v>
       </c>
       <c r="K7">
-        <v>1.07600160577551</v>
+        <v>1.065019287069342</v>
       </c>
       <c r="L7">
-        <v>1.073068989870968</v>
+        <v>1.062798250802506</v>
       </c>
       <c r="M7">
-        <v>1.080201414430482</v>
+        <v>1.07095876381906</v>
       </c>
       <c r="N7">
-        <v>1.076968633450212</v>
+        <v>1.044976052329299</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.072045766667962</v>
+        <v>1.064731097593794</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.064827000255526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.057072450383527</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.028659672391786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051606715596498</v>
+        <v>1.039754874069105</v>
       </c>
       <c r="D8">
-        <v>1.062570196457156</v>
+        <v>1.052244290672839</v>
       </c>
       <c r="E8">
-        <v>1.059047504693845</v>
+        <v>1.04945220577857</v>
       </c>
       <c r="F8">
-        <v>1.066666503798284</v>
+        <v>1.057992442530387</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.074269706211936</v>
+        <v>1.067310803963158</v>
       </c>
       <c r="J8">
-        <v>1.071816937635724</v>
+        <v>1.060269526385197</v>
       </c>
       <c r="K8">
-        <v>1.072964417864421</v>
+        <v>1.06276019708967</v>
       </c>
       <c r="L8">
-        <v>1.069482908991836</v>
+        <v>1.060001525558054</v>
       </c>
       <c r="M8">
-        <v>1.077013258884971</v>
+        <v>1.068440247355207</v>
       </c>
       <c r="N8">
-        <v>1.073339040626287</v>
+        <v>1.043542113940188</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.069522655743655</v>
+        <v>1.062737922300711</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.062684024510827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.055480082755772</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.028146067883859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040912898790606</v>
+        <v>1.030586754434918</v>
       </c>
       <c r="D9">
-        <v>1.055065516455232</v>
+        <v>1.046105519493606</v>
       </c>
       <c r="E9">
-        <v>1.050523152185905</v>
+        <v>1.042308527430351</v>
       </c>
       <c r="F9">
-        <v>1.058916253308927</v>
+        <v>1.051416132395537</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.070496409566269</v>
+        <v>1.064472676179367</v>
       </c>
       <c r="J9">
-        <v>1.065099265975013</v>
+        <v>1.055103798972942</v>
       </c>
       <c r="K9">
-        <v>1.067324184260993</v>
+        <v>1.058492372763785</v>
       </c>
       <c r="L9">
-        <v>1.062846459044197</v>
+        <v>1.05475054544596</v>
       </c>
       <c r="M9">
-        <v>1.071120672668581</v>
+        <v>1.063726676092765</v>
       </c>
       <c r="N9">
-        <v>1.066611829101291</v>
+        <v>1.040664965036278</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.0648592334575</v>
+        <v>1.059007548319799</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.058693144738739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.052459202577213</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.027123911919039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033582321055379</v>
+        <v>1.024465602587408</v>
       </c>
       <c r="D10">
-        <v>1.049972012425717</v>
+        <v>1.042077849882452</v>
       </c>
       <c r="E10">
-        <v>1.04475243226996</v>
+        <v>1.037639774588935</v>
       </c>
       <c r="F10">
-        <v>1.053696669898455</v>
+        <v>1.047124731830465</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.067898767741011</v>
+        <v>1.062603332605721</v>
       </c>
       <c r="J10">
-        <v>1.060524105067485</v>
+        <v>1.051741067908633</v>
       </c>
       <c r="K10">
-        <v>1.063494046640019</v>
+        <v>1.055726779885409</v>
       </c>
       <c r="L10">
-        <v>1.058358093694817</v>
+        <v>1.051361135244884</v>
       </c>
       <c r="M10">
-        <v>1.06715967675926</v>
+        <v>1.060692252141319</v>
       </c>
       <c r="N10">
-        <v>1.062030170940496</v>
+        <v>1.039006912377147</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.061774490264128</v>
+        <v>1.056656389398328</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.05600147827024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.050521944611847</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.026509025831397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031294219006172</v>
+        <v>1.022612785044563</v>
       </c>
       <c r="D11">
-        <v>1.048606524781597</v>
+        <v>1.04108740659715</v>
       </c>
       <c r="E11">
-        <v>1.043310547683034</v>
+        <v>1.036558119094365</v>
       </c>
       <c r="F11">
-        <v>1.052541767260009</v>
+        <v>1.046292112880488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.067334866545992</v>
+        <v>1.06229940223095</v>
       </c>
       <c r="J11">
-        <v>1.05942068089774</v>
+        <v>1.051074191150125</v>
       </c>
       <c r="K11">
-        <v>1.062666534317476</v>
+        <v>1.055273954156891</v>
       </c>
       <c r="L11">
-        <v>1.057459437341747</v>
+        <v>1.050822034534094</v>
       </c>
       <c r="M11">
-        <v>1.066536478687217</v>
+        <v>1.06039082151996</v>
       </c>
       <c r="N11">
-        <v>1.060925179781866</v>
+        <v>1.039066807118046</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.061706134061145</v>
+        <v>1.056845000233651</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.055448381860419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.050237118660619</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.026625821007595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030780542363758</v>
+        <v>1.02213438303232</v>
       </c>
       <c r="D12">
-        <v>1.048408654399015</v>
+        <v>1.040917478286143</v>
       </c>
       <c r="E12">
-        <v>1.043170678993673</v>
+        <v>1.036410681096284</v>
       </c>
       <c r="F12">
-        <v>1.052523373721739</v>
+        <v>1.046288715398361</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.067333959970542</v>
+        <v>1.062320748757203</v>
       </c>
       <c r="J12">
-        <v>1.059337020848877</v>
+        <v>1.051030644654442</v>
       </c>
       <c r="K12">
-        <v>1.062663689494338</v>
+        <v>1.055300617890408</v>
       </c>
       <c r="L12">
-        <v>1.05751503717084</v>
+        <v>1.050872045583262</v>
       </c>
       <c r="M12">
-        <v>1.066709044403496</v>
+        <v>1.060579762640283</v>
       </c>
       <c r="N12">
-        <v>1.060841400926137</v>
+        <v>1.039230993530289</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.062161292636592</v>
+        <v>1.057314682793503</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.055446370578064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.050255969699957</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.026765515435103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031630886392603</v>
+        <v>1.022687638839393</v>
       </c>
       <c r="D13">
-        <v>1.049128981578223</v>
+        <v>1.041380572417727</v>
       </c>
       <c r="E13">
-        <v>1.044056699943853</v>
+        <v>1.036981570703713</v>
       </c>
       <c r="F13">
-        <v>1.053413108663827</v>
+        <v>1.0469392223263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.067791765577908</v>
+        <v>1.062605122761281</v>
       </c>
       <c r="J13">
-        <v>1.060066426519901</v>
+        <v>1.051472685464099</v>
       </c>
       <c r="K13">
-        <v>1.06333074070715</v>
+        <v>1.055714202497166</v>
       </c>
       <c r="L13">
-        <v>1.058344498923323</v>
+        <v>1.051391202949011</v>
       </c>
       <c r="M13">
-        <v>1.067543028788339</v>
+        <v>1.061177993801145</v>
       </c>
       <c r="N13">
-        <v>1.061571842436878</v>
+        <v>1.039436996383173</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.063091550671338</v>
+        <v>1.058059741782714</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.055915549085574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.050545691622694</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026942221350387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032842033610739</v>
+        <v>1.023552933083518</v>
       </c>
       <c r="D14">
-        <v>1.050048126324749</v>
+        <v>1.042002320920052</v>
       </c>
       <c r="E14">
-        <v>1.045138645829592</v>
+        <v>1.037718862479182</v>
       </c>
       <c r="F14">
-        <v>1.054445628067097</v>
+        <v>1.047700465898845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.068318883192815</v>
+        <v>1.062929815067644</v>
       </c>
       <c r="J14">
-        <v>1.060943408382853</v>
+        <v>1.052011982260137</v>
       </c>
       <c r="K14">
-        <v>1.06409995615243</v>
+        <v>1.056189334635108</v>
       </c>
       <c r="L14">
-        <v>1.059272644444234</v>
+        <v>1.051978951038524</v>
       </c>
       <c r="M14">
-        <v>1.068424693627468</v>
+        <v>1.061791464130628</v>
       </c>
       <c r="N14">
-        <v>1.062450069714666</v>
+        <v>1.03960695438521</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.063958623494797</v>
+        <v>1.058715483425214</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.056460767824094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.050883137227445</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.027089971406232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033446281489649</v>
+        <v>1.024003854916808</v>
       </c>
       <c r="D15">
-        <v>1.050485594856596</v>
+        <v>1.042308618693081</v>
       </c>
       <c r="E15">
-        <v>1.045640940618652</v>
+        <v>1.038074612591021</v>
       </c>
       <c r="F15">
-        <v>1.054912338225484</v>
+        <v>1.048048999378351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.068556368748056</v>
+        <v>1.063077441887909</v>
       </c>
       <c r="J15">
-        <v>1.061347853749124</v>
+        <v>1.052265788125867</v>
       </c>
       <c r="K15">
-        <v>1.06444735003368</v>
+        <v>1.056406706157567</v>
       </c>
       <c r="L15">
-        <v>1.059683137592829</v>
+        <v>1.052244382167601</v>
       </c>
       <c r="M15">
-        <v>1.068801420937485</v>
+        <v>1.062051092672968</v>
       </c>
       <c r="N15">
-        <v>1.062855089439748</v>
+        <v>1.039670961632322</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.064293297150009</v>
+        <v>1.058957735046857</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.056712081788222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.051043125273717</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.027143819597141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036392288378226</v>
+        <v>1.026312194443235</v>
       </c>
       <c r="D16">
-        <v>1.052511103552688</v>
+        <v>1.043789197604288</v>
       </c>
       <c r="E16">
-        <v>1.047917790904026</v>
+        <v>1.039774280644607</v>
       </c>
       <c r="F16">
-        <v>1.056974648194438</v>
+        <v>1.049629615826743</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.069587939477506</v>
+        <v>1.06373323135769</v>
       </c>
       <c r="J16">
-        <v>1.063160472281825</v>
+        <v>1.05344582519603</v>
       </c>
       <c r="K16">
-        <v>1.065958753433105</v>
+        <v>1.0573759172276</v>
       </c>
       <c r="L16">
-        <v>1.061438310761111</v>
+        <v>1.053426025002526</v>
       </c>
       <c r="M16">
-        <v>1.070352262563648</v>
+        <v>1.063122883163317</v>
       </c>
       <c r="N16">
-        <v>1.064670282098676</v>
+        <v>1.039937964415316</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.06548106755662</v>
+        <v>1.059766695779146</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.05778371522236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.05173175530142</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.027311537507408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038020847118015</v>
+        <v>1.027652748271552</v>
       </c>
       <c r="D17">
-        <v>1.053586370990195</v>
+        <v>1.044616160186934</v>
       </c>
       <c r="E17">
-        <v>1.049101539651291</v>
+        <v>1.040711755482961</v>
       </c>
       <c r="F17">
-        <v>1.058014959193222</v>
+        <v>1.050455569940176</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.070101713499811</v>
+        <v>1.064075038760064</v>
       </c>
       <c r="J17">
-        <v>1.064092464915539</v>
+        <v>1.054088234039259</v>
       </c>
       <c r="K17">
-        <v>1.066715831929212</v>
+        <v>1.057884655436136</v>
       </c>
       <c r="L17">
-        <v>1.062300133833252</v>
+        <v>1.05404172584725</v>
       </c>
       <c r="M17">
-        <v>1.071076886809047</v>
+        <v>1.063633212437164</v>
       </c>
       <c r="N17">
-        <v>1.065603598268831</v>
+        <v>1.040115051517048</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.065927240491664</v>
+        <v>1.060042911894313</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.058321481045635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.052094212447101</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.027367034349019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038632890546327</v>
+        <v>1.028223934962686</v>
       </c>
       <c r="D18">
-        <v>1.053902848317067</v>
+        <v>1.044895252489636</v>
       </c>
       <c r="E18">
-        <v>1.049405710835539</v>
+        <v>1.041006020876305</v>
       </c>
       <c r="F18">
-        <v>1.058217942142647</v>
+        <v>1.050633986329664</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.070191518260735</v>
+        <v>1.064137627424985</v>
       </c>
       <c r="J18">
-        <v>1.064311851346787</v>
+        <v>1.054261503279319</v>
       </c>
       <c r="K18">
-        <v>1.066851780213591</v>
+        <v>1.057981560568659</v>
       </c>
       <c r="L18">
-        <v>1.062422853353169</v>
+        <v>1.054152583337919</v>
       </c>
       <c r="M18">
-        <v>1.071102117899694</v>
+        <v>1.063632425016261</v>
       </c>
       <c r="N18">
-        <v>1.065823296253975</v>
+        <v>1.040132032094948</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.065714587341836</v>
+        <v>1.05980850418473</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.058406293800797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.052150224350142</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02729847172216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038354740458718</v>
+        <v>1.028097193844812</v>
       </c>
       <c r="D19">
-        <v>1.053564526376061</v>
+        <v>1.044685667930742</v>
       </c>
       <c r="E19">
-        <v>1.048945402343304</v>
+        <v>1.040718255249351</v>
       </c>
       <c r="F19">
-        <v>1.057687664187771</v>
+        <v>1.050226937179816</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.069919374575</v>
+        <v>1.063951971651643</v>
       </c>
       <c r="J19">
-        <v>1.063916523362417</v>
+        <v>1.054010512013215</v>
       </c>
       <c r="K19">
-        <v>1.066458628409245</v>
+        <v>1.057714555459258</v>
       </c>
       <c r="L19">
-        <v>1.061909262060637</v>
+        <v>1.053808319671338</v>
       </c>
       <c r="M19">
-        <v>1.070520153288105</v>
+        <v>1.063171364889749</v>
       </c>
       <c r="N19">
-        <v>1.065427406858522</v>
+        <v>1.039968760059951</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.064936817029068</v>
+        <v>1.059124512250129</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.058134550929936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.051968325405016</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.027124413502188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035550633194546</v>
+        <v>1.025998238994646</v>
       </c>
       <c r="D20">
-        <v>1.051360122718132</v>
+        <v>1.043089760434725</v>
       </c>
       <c r="E20">
-        <v>1.046319374033571</v>
+        <v>1.038797084684265</v>
       </c>
       <c r="F20">
-        <v>1.055108586346954</v>
+        <v>1.048200535378994</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.068619143779034</v>
+        <v>1.063065902600021</v>
       </c>
       <c r="J20">
-        <v>1.061776727234267</v>
+        <v>1.052562493606011</v>
       </c>
       <c r="K20">
-        <v>1.064556228681412</v>
+        <v>1.056415004065068</v>
       </c>
       <c r="L20">
-        <v>1.059593878127535</v>
+        <v>1.052190395173732</v>
       </c>
       <c r="M20">
-        <v>1.068247012526566</v>
+        <v>1.06144566928134</v>
       </c>
       <c r="N20">
-        <v>1.063284571974432</v>
+        <v>1.039276925180216</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.062624717473599</v>
+        <v>1.057242304027496</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.056793374513294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.051053762330646</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026652480162694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029848521039502</v>
+        <v>1.021748877014852</v>
       </c>
       <c r="D21">
-        <v>1.047362140493796</v>
+        <v>1.040342666699768</v>
       </c>
       <c r="E21">
-        <v>1.041773023549916</v>
+        <v>1.035632235141699</v>
       </c>
       <c r="F21">
-        <v>1.050970262298136</v>
+        <v>1.045186454468289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.066532302259956</v>
+        <v>1.061834972390884</v>
       </c>
       <c r="J21">
-        <v>1.058149206481975</v>
+        <v>1.050364613055051</v>
       </c>
       <c r="K21">
-        <v>1.061498542105069</v>
+        <v>1.054598026066783</v>
       </c>
       <c r="L21">
-        <v>1.056003974973304</v>
+        <v>1.049968590991634</v>
       </c>
       <c r="M21">
-        <v>1.065046314177129</v>
+        <v>1.059359506581915</v>
       </c>
       <c r="N21">
-        <v>1.05965189972659</v>
+        <v>1.038836235714934</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.060051926739418</v>
+        <v>1.055551304517341</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.054634740562262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04977263027121</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.026339712933103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026215672899009</v>
+        <v>1.019023934875701</v>
       </c>
       <c r="D22">
-        <v>1.044825181706773</v>
+        <v>1.038591210386411</v>
       </c>
       <c r="E22">
-        <v>1.038896927220972</v>
+        <v>1.033624417596902</v>
       </c>
       <c r="F22">
-        <v>1.048366848198307</v>
+        <v>1.043289037866232</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.065201920722601</v>
+        <v>1.061039437777817</v>
       </c>
       <c r="J22">
-        <v>1.055846854559876</v>
+        <v>1.048951277562941</v>
       </c>
       <c r="K22">
-        <v>1.059558041903216</v>
+        <v>1.053435067092641</v>
       </c>
       <c r="L22">
-        <v>1.053735300257305</v>
+        <v>1.048557955348584</v>
       </c>
       <c r="M22">
-        <v>1.063037410442773</v>
+        <v>1.058049089475624</v>
       </c>
       <c r="N22">
-        <v>1.057346278200678</v>
+        <v>1.03850694687604</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.058462054126365</v>
+        <v>1.054514217607282</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.053249637811758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.048935888375344</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.026145067593859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,105 +1741,123 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028125444404476</v>
+        <v>1.020408476467005</v>
       </c>
       <c r="D23">
-        <v>1.046150665487777</v>
+        <v>1.039463031942209</v>
       </c>
       <c r="E23">
-        <v>1.040401496428172</v>
+        <v>1.034623402872329</v>
       </c>
       <c r="F23">
-        <v>1.049730921099057</v>
+        <v>1.044243811869618</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.065895600501061</v>
+        <v>1.061424274821703</v>
       </c>
       <c r="J23">
-        <v>1.057049565276674</v>
+        <v>1.049641016632733</v>
       </c>
       <c r="K23">
-        <v>1.060567189837347</v>
+        <v>1.053995585733073</v>
       </c>
       <c r="L23">
-        <v>1.054917651482036</v>
+        <v>1.049241137024242</v>
       </c>
       <c r="M23">
-        <v>1.064086113331281</v>
+        <v>1.058693223907916</v>
       </c>
       <c r="N23">
-        <v>1.058550696904647</v>
+        <v>1.038579722541036</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.059292011677124</v>
+        <v>1.055023996987216</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.05395372241963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.049321812806179</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.026215321552556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.035516659809679</v>
+        <v>1.02598754076035</v>
       </c>
       <c r="D24">
-        <v>1.051304421493126</v>
+        <v>1.043053310302923</v>
       </c>
       <c r="E24">
-        <v>1.046249746808829</v>
+        <v>1.038755050661317</v>
       </c>
       <c r="F24">
-        <v>1.055033470323889</v>
+        <v>1.048144679446986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.068572934180194</v>
+        <v>1.063032744339559</v>
       </c>
       <c r="J24">
-        <v>1.061712891488103</v>
+        <v>1.052520659655556</v>
       </c>
       <c r="K24">
-        <v>1.064486737559118</v>
+        <v>1.056364314018891</v>
       </c>
       <c r="L24">
-        <v>1.059510589635724</v>
+        <v>1.052134129504439</v>
       </c>
       <c r="M24">
-        <v>1.068158469137083</v>
+        <v>1.061375970178851</v>
       </c>
       <c r="N24">
-        <v>1.063220645574187</v>
+        <v>1.039245732614297</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.062514920312864</v>
+        <v>1.057147166152536</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.05671758641929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.050988456032806</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026617239529441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043770624903037</v>
+        <v>1.032984146044237</v>
       </c>
       <c r="D25">
-        <v>1.057080009132666</v>
+        <v>1.047713181922565</v>
       </c>
       <c r="E25">
-        <v>1.052806556854423</v>
+        <v>1.044169614816269</v>
       </c>
       <c r="F25">
-        <v>1.060987271189868</v>
+        <v>1.05313268832447</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.071523898426056</v>
+        <v>1.065221546125007</v>
       </c>
       <c r="J25">
-        <v>1.066909675923913</v>
+        <v>1.056450261588553</v>
       </c>
       <c r="K25">
-        <v>1.068852442694811</v>
+        <v>1.05961336060127</v>
       </c>
       <c r="L25">
-        <v>1.064636916993125</v>
+        <v>1.056118874597232</v>
       </c>
       <c r="M25">
-        <v>1.072707254822418</v>
+        <v>1.064958606902289</v>
       </c>
       <c r="N25">
-        <v>1.068424810039975</v>
+        <v>1.041355486004538</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.066114865232225</v>
+        <v>1.059982514126704</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.059801412714031</v>
+        <v>1.05328249168342</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.027392659070201</v>
       </c>
     </row>
   </sheetData>
